--- a/data/dividends_info_20260227.xlsx
+++ b/data/dividends_info_20260227.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>55.59999847412109</v>
+        <v>54.84999847412109</v>
       </c>
       <c r="I2" t="n">
-        <v>1.258992840307025</v>
+        <v>1.276207875065427</v>
       </c>
       <c r="J2" t="n">
         <v>353</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>23</v>
+        <v>22.75</v>
       </c>
       <c r="I3" t="n">
-        <v>3.695652173913043</v>
+        <v>3.736263736263736</v>
       </c>
       <c r="J3" t="n">
         <v>115</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>82.90000152587891</v>
+        <v>82.33999633789062</v>
       </c>
       <c r="I4" t="n">
-        <v>1.254523499224959</v>
+        <v>1.263055679201458</v>
       </c>
       <c r="J4" t="n">
         <v>80</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>55.59999847412109</v>
+        <v>54.84999847412109</v>
       </c>
       <c r="I5" t="n">
-        <v>3.956834640964937</v>
+        <v>4.010939035919914</v>
       </c>
       <c r="J5" t="n">
         <v>80</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>20.35000038146973</v>
+        <v>19.98999977111816</v>
       </c>
       <c r="I6" t="n">
-        <v>3.882063809292883</v>
+        <v>3.951976033243398</v>
       </c>
       <c r="J6" t="n">
         <v>80</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5.885000228881836</v>
+        <v>5.835000038146973</v>
       </c>
       <c r="I7" t="n">
-        <v>3.228547028214822</v>
+        <v>3.256212489423368</v>
       </c>
       <c r="J7" t="n">
         <v>80</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>58.56000137329102</v>
+        <v>58.43999862670898</v>
       </c>
       <c r="I8" t="n">
-        <v>2.390710326449095</v>
+        <v>2.395619495035639</v>
       </c>
       <c r="J8" t="n">
         <v>80</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9.350000381469727</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="I10" t="n">
-        <v>5.459892825370714</v>
+        <v>5.597587789538714</v>
       </c>
       <c r="J10" t="n">
         <v>66</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>19.20000076293945</v>
+        <v>19.39999961853027</v>
       </c>
       <c r="I11" t="n">
-        <v>3.906249844779577</v>
+        <v>3.865979457461552</v>
       </c>
       <c r="J11" t="n">
         <v>66</v>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4.320000171661377</v>
+        <v>4.364999771118164</v>
       </c>
       <c r="I12" t="n">
-        <v>3.472222084248513</v>
+        <v>3.43642629702991</v>
       </c>
       <c r="J12" t="n">
         <v>66</v>
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2.240000009536743</v>
+        <v>2.234999895095825</v>
       </c>
       <c r="I13" t="n">
-        <v>2.901785701931435</v>
+        <v>2.908277541427497</v>
       </c>
       <c r="J13" t="n">
         <v>59</v>
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6.949999809265137</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="I14" t="n">
-        <v>7.194244801754432</v>
+        <v>7.267441739579549</v>
       </c>
       <c r="J14" t="n">
         <v>52</v>
@@ -1139,10 +1139,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>12.92500019073486</v>
+        <v>12.53499984741211</v>
       </c>
       <c r="I15" t="n">
-        <v>4.177949648210395</v>
+        <v>4.30793782667245</v>
       </c>
       <c r="J15" t="n">
         <v>52</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>319.6000061035156</v>
+        <v>321.3999938964844</v>
       </c>
       <c r="I16" t="n">
-        <v>1.131101355119854</v>
+        <v>1.124766667283855</v>
       </c>
       <c r="J16" t="n">
         <v>52</v>
@@ -1233,10 +1233,10 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>26</v>
+        <v>26.39999961853027</v>
       </c>
       <c r="I17" t="n">
-        <v>5.230769230769231</v>
+        <v>5.151515225952543</v>
       </c>
       <c r="J17" t="n">
         <v>52</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>19.70000076293945</v>
+        <v>18.46999931335449</v>
       </c>
       <c r="I18" t="n">
-        <v>3.197969419296597</v>
+        <v>3.410936780839438</v>
       </c>
       <c r="J18" t="n">
         <v>52</v>
@@ -1327,10 +1327,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>100.1500015258789</v>
+        <v>102.5</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8986520082752457</v>
+        <v>0.878048780487805</v>
       </c>
       <c r="J19" t="n">
         <v>52</v>
@@ -1374,10 +1374,10 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>73.76000213623047</v>
+        <v>72.41000366210938</v>
       </c>
       <c r="I20" t="n">
-        <v>2.332971732866523</v>
+        <v>2.3764672185764</v>
       </c>
       <c r="J20" t="n">
         <v>52</v>
@@ -1421,10 +1421,10 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>19.35799980163574</v>
+        <v>19.6560001373291</v>
       </c>
       <c r="I21" t="n">
-        <v>1.343113971816603</v>
+        <v>1.322751313509755</v>
       </c>
       <c r="J21" t="n">
         <v>24</v>
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>28.85499954223633</v>
+        <v>28.40999984741211</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3119043542810079</v>
+        <v>0.3167898644258464</v>
       </c>
       <c r="J22" t="n">
         <v>24</v>
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>55.59999847412109</v>
+        <v>54.84999847412109</v>
       </c>
       <c r="I23" t="n">
-        <v>1.169064780285095</v>
+        <v>1.185050169703611</v>
       </c>
       <c r="J23" t="n">
         <v>-4</v>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.1800000071525574</v>
+        <v>0.1829999983310699</v>
       </c>
       <c r="I25" t="n">
-        <v>33.33333200878572</v>
+        <v>32.78688554491267</v>
       </c>
       <c r="J25" t="n">
         <v>-25</v>
@@ -2085,7 +2085,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2102,7 +2102,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2112,14 +2112,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -2146,14 +2146,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Banca Generali S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2163,14 +2163,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>Banca Generali S.p.A.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2221,7 +2221,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Generalfinance S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2316,14 +2316,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ITALMOBILIARE S.p.A.</t>
+          <t>Generalfinance S.p.A.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2357,7 +2357,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
+          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2367,14 +2367,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2401,14 +2401,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2459,7 +2459,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>VALSOIA S.p.A.</t>
+          <t>CALTAGIRONE EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sanlorenzo S.p.A.</t>
+          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CALTAGIRONE EDITORE S.p.A.</t>
+          <t>DIGITAL BROS S.p.A.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2503,14 +2503,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2527,7 +2527,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DIGITAL BROS S.p.A.</t>
+          <t>VALSOIA S.p.A.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2537,14 +2537,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
+          <t>Toscana Aeroporti S.p.A.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2561,7 +2561,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Banca Popolare di Sondrio S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2578,7 +2578,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CAREL INDUSTRIES S.p.A.</t>
+          <t>RT&amp;L S.P.A.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2595,7 +2595,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RT&amp;L S.P.A.</t>
+          <t>Banca Popolare di Sondrio S.p.A.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2612,7 +2612,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2629,7 +2629,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Toscana Aeroporti S.p.A.</t>
+          <t>CAREL INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2663,7 +2663,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2673,14 +2673,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>WEBUILD S.p.A.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2731,7 +2731,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>WEBUILD S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2741,14 +2741,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2765,7 +2765,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2782,7 +2782,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2809,14 +2809,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2826,14 +2826,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2843,14 +2843,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2860,14 +2860,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2877,14 +2877,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2901,7 +2901,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Bper Banca S.P.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2918,7 +2918,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2928,14 +2928,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>Bper Banca S.P.A.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2952,7 +2952,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2969,7 +2969,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2979,14 +2979,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3003,7 +3003,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>EQUITA GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3013,14 +3013,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EQUITA GROUP S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3030,14 +3030,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>Enervit S.p.A.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3047,14 +3047,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Enervit S.p.A.</t>
+          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3071,7 +3071,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GEFRAN S.p.A.</t>
+          <t>SAFILO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3122,7 +3122,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>Orsero S.p.A.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3156,7 +3156,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sesa S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3166,14 +3166,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>Sesa S.p.A.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3183,14 +3183,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3224,7 +3224,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>E.P.H. S.p.A.</t>
+          <t>GEFRAN S.p.A.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3241,7 +3241,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Orsero S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3251,14 +3251,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>E.P.H. S.p.A.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3275,7 +3275,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SAFILO GROUP S.p.A.</t>
+          <t>CULTI Milano S.p.A.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3292,7 +3292,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3302,14 +3302,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3326,7 +3326,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>ACEA S.p.A.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3336,14 +3336,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3353,14 +3353,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Alerion Clean Power S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3370,14 +3370,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3394,7 +3394,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ACEA S.p.A.</t>
+          <t>Alerion Clean Power S.p.A.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3411,7 +3411,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Avio S.p.A.</t>
+          <t>Aquafil S.p.A.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3428,7 +3428,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Aquafil S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3455,14 +3455,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BANCA MEDIOLANUM S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3479,7 +3479,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
+          <t>BANCA MEDIOLANUM S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3496,7 +3496,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CALTAGIRONE S.p.A.</t>
+          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3513,7 +3513,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>CALTAGIRONE S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3523,14 +3523,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3540,14 +3540,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CULTI Milano S.p.A.</t>
+          <t>CREDITO EMILIANO S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3564,7 +3564,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>Avio S.p.A.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3574,14 +3574,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>EMAK S.p.A.</t>
+          <t>BIESSE S.p.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3598,7 +3598,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>EL.EN. S.p.A.</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3615,7 +3615,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3649,7 +3649,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3666,7 +3666,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>IRCE s.p.a</t>
+          <t>Impianti S.p.A.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3683,7 +3683,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BIESSE S.p.A.</t>
+          <t>IRCE s.p.a</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -3727,14 +3727,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3768,7 +3768,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>EL.EN. S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3802,7 +3802,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>EMAK S.p.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3853,7 +3853,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>GAROFALO HEALTH CARE S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3863,14 +3863,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MOLTIPLY GROUP S.p.A.</t>
+          <t>Acinque S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3904,7 +3904,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>NEWPRINCES</t>
+          <t>EUROTECH S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3914,14 +3914,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>REVO Insurance S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3931,14 +3931,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
+          <t>MOLTIPLY GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3955,7 +3955,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>Comer Industries S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3972,7 +3972,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Comer Industries S.p.A.</t>
+          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3989,7 +3989,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3999,14 +3999,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4016,14 +4016,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4040,7 +4040,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>TECMA SOLUTIONS S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4057,7 +4057,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
+          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4074,7 +4074,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>EUROTECH S.p.A.</t>
+          <t>TECMA SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4091,7 +4091,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Acinque S.p.A.</t>
+          <t>Triboo S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4108,7 +4108,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>GAROFALO HEALTH CARE S.p.A.</t>
+          <t>NEWPRINCES</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4118,14 +4118,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Triboo S.p.A.</t>
+          <t>REVO Insurance S.p.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4142,7 +4142,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Pharmanutra S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4152,14 +4152,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>FAE Technology Società Benefit S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A2A S.p.A.</t>
+          <t>I.M.D. International Medical Devices S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4193,7 +4193,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4203,14 +4203,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>I.M.D. International Medical Devices S.p.A.</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4220,14 +4220,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4237,14 +4237,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>FAE Technology Società Benefit S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4254,14 +4254,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Pharmanutra S.p.A.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4271,14 +4271,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sanlorenzo S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4288,14 +4288,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>A2A S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4312,7 +4312,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BREMBO N.V.</t>
+          <t>RISANAMENTO S.p.A.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4329,7 +4329,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>RISANAMENTO S.p.A.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4346,7 +4346,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>Technoprobe S.p.A.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -4373,14 +4373,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>BREMBO N.V.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4397,7 +4397,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Technoprobe S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4458,14 +4458,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4475,14 +4475,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -4509,14 +4509,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>B&amp;C SPEAKERS S.p.A.</t>
+          <t>AEDES S.p.A.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4533,7 +4533,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>DATALOGIC S.p.A.</t>
+          <t>TECHNOGYM S.p.A.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4543,14 +4543,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Ecomembrane S.p.A.</t>
+          <t>TECHNOGYM S.p.A.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4567,7 +4567,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>RECORDATI S.p.A.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4577,14 +4577,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>FNM S.p.A.</t>
+          <t>DATALOGIC S.p.A.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4601,7 +4601,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>FRENDY ENERGY S.p.A.</t>
+          <t>B&amp;C SPEAKERS S.p.A.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4618,7 +4618,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
+          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4635,7 +4635,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>FNM S.p.A.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4645,14 +4645,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4662,14 +4662,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>RECORDATI S.p.A.</t>
+          <t>Ecomembrane S.p.A.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4686,7 +4686,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>AEDES S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4713,14 +4713,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>TECHNOGYM S.p.A.</t>
+          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4737,7 +4737,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>TECHNOGYM S.p.A.</t>
+          <t>FRENDY ENERGY S.p.A.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4754,7 +4754,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Gambero Rosso S.p.A.</t>
+          <t>gAIn360 S.p.A.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4771,7 +4771,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Pattern S.p.A.</t>
+          <t>INTERPUMP GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4781,14 +4781,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>gAIn360 S.p.A.</t>
+          <t>DHH S.p.A.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4805,7 +4805,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>OPS Italia S.p.A.</t>
+          <t>DiaSorin S.p.A</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4822,7 +4822,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>NEXT RE SIIQ S.p.A.</t>
+          <t>Telesia S.p.A.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4839,7 +4839,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>INTERPUMP GROUP S.p.A.</t>
+          <t>Pattern S.p.A.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4849,14 +4849,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Telesia S.p.A.</t>
+          <t>OPS Italia S.p.A.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4873,7 +4873,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>DiaSorin S.p.A</t>
+          <t>NEXT RE SIIQ S.p.A.</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4890,7 +4890,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>DHH S.p.A.</t>
+          <t>Gambero Rosso S.p.A.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4907,7 +4907,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>F.I.L.A. S.p.A.</t>
+          <t>Banca Profilo S.p.A.</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4924,7 +4924,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>FOPE S.p.A.</t>
+          <t>CLASS EDITORI S.p.A.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4941,7 +4941,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Friends S.p.A.</t>
+          <t>Antares Vision S.p.A.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4958,7 +4958,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>HELYX INDUSTRIES S.p.A.</t>
+          <t>Altea Green Power S.p.A.</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4968,14 +4968,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>IMMSI S.p.A.</t>
+          <t>Altea Green Power S.p.A.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4992,7 +4992,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>POWERSOFT S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -5002,14 +5002,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>OMER S.p.A.</t>
+          <t>ENAV S.p.A.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5026,7 +5026,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>IREN S.p.A.</t>
+          <t>Predict S.p.A.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5043,7 +5043,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Predict S.p.A.</t>
+          <t>EuroGroup Laminations S.p.A.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -5060,7 +5060,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Nusco S.p.A.</t>
+          <t>EXPERT.AI S.p.A.</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -5077,7 +5077,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>EuroGroup Laminations S.p.A.</t>
+          <t>F.I.L.A. S.p.A.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -5094,7 +5094,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Ubaldi Costruzioni S.p.A.</t>
+          <t>FOPE S.p.A.</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -5111,7 +5111,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SECO S.p.A.</t>
+          <t>Friends S.p.A.</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -5128,7 +5128,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Radici Pietro Industries &amp; Brands S.p.A.</t>
+          <t>HELYX INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -5145,7 +5145,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>IMMSI S.p.A.</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -5155,14 +5155,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Altea Green Power S.p.A.</t>
+          <t>IREN S.p.A.</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -5179,7 +5179,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Altea Green Power S.p.A.</t>
+          <t>OMER S.p.A.</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -5189,14 +5189,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Antares Vision S.p.A.</t>
+          <t>Nusco S.p.A.</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -5213,7 +5213,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Banca Profilo S.p.A.</t>
+          <t>Ubaldi Costruzioni S.p.A.</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5230,7 +5230,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>CLASS EDITORI S.p.A.</t>
+          <t>SECO S.p.A.</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5247,7 +5247,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ENAV S.p.A.</t>
+          <t>Radici Pietro Industries &amp; Brands S.p.A.</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5264,7 +5264,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>EXPERT.AI S.p.A.</t>
+          <t>RAI WAY S.p.A.</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5281,7 +5281,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>RAI WAY S.p.A.</t>
+          <t>POWERSOFT S.p.A.</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5315,7 +5315,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Growens S.p.A.</t>
+          <t>Allcore S.p.A.</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5332,7 +5332,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Egomnia S.p.A.</t>
+          <t>RCS MediaGroup S.p.A.</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5349,7 +5349,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>RCS MediaGroup S.p.A.</t>
+          <t>Softlab S.p.A.</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5366,7 +5366,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Franchi Umberto Marmi S.p.A.</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5376,14 +5376,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Braga Moro Sistemi di Energia S.p.A.</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5393,14 +5393,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SABAF S.p.A.</t>
+          <t>SIAV S.p.A.</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5410,14 +5410,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>DOTSTAY S.p.A.</t>
+          <t>SABAF S.p.A.</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5434,7 +5434,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Cloudia Research S.p.A.</t>
+          <t>SABAF S.p.A.</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5444,14 +5444,14 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>CAIRO COMMUNICATION S.p.A.</t>
+          <t>Porto Aviation Group S.p.A.</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5468,7 +5468,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Braga Moro Sistemi di Energia S.p.A.</t>
+          <t>Growens S.p.A.</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5485,7 +5485,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Allcore S.p.A.</t>
+          <t>CAIRO COMMUNICATION S.p.A.</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5502,7 +5502,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SABAF S.p.A.</t>
+          <t>Franchi Umberto Marmi S.p.A.</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5519,7 +5519,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SIAV S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5529,14 +5529,14 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Sanlorenzo S.p.A.</t>
+          <t>Egomnia S.p.A.</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5546,14 +5546,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Softlab S.p.A.</t>
+          <t>Cloudia Research S.p.A.</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5587,7 +5587,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Porto Aviation Group S.p.A.</t>
+          <t>DOTSTAY S.p.A.</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5604,7 +5604,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>The Italian Sea Group S.p.A.</t>
+          <t>rino petino S.p.A.</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5614,14 +5614,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Somec S.p.A.</t>
+          <t>ESI S.p.A.</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5638,7 +5638,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Racing Force S.p.A.</t>
+          <t>Confinvest F.L. S.p.A.</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5655,7 +5655,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>PLC S.p.A.</t>
+          <t>BRIOSCHI SVILUPPO IMMOBILIARE S.p.A</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5672,7 +5672,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>PININFARINA S.p.A.</t>
+          <t>BolognaFiere S.p.A.</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5689,7 +5689,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Longino &amp; Cardenal S.p.A.</t>
+          <t>ATON Green Storage S.p.A.</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5706,7 +5706,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>HERA S.p.A.</t>
+          <t>ELSA Solutions S.p.A.</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5723,7 +5723,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>G.M. Leather S.p.A.</t>
+          <t>ELICA S.p.A.</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5740,7 +5740,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ELICA S.p.A.</t>
+          <t>CREACTIVES GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5750,14 +5750,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ELSA Solutions S.p.A.</t>
+          <t>eVISO S.p.A.</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
@@ -5784,14 +5784,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
+          <t>FINCANTIERI S.p.A.</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5808,7 +5808,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>eVISO S.p.A.</t>
+          <t>The Italian Sea Group S.p.A.</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5818,14 +5818,14 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>rino petino S.p.A.</t>
+          <t>DANIELI &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5835,14 +5835,14 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ATON Green Storage S.p.A.</t>
+          <t>Somec S.p.A.</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5859,7 +5859,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>BRIOSCHI SVILUPPO IMMOBILIARE S.p.A</t>
+          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5876,7 +5876,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>BolognaFiere S.p.A.</t>
+          <t>PLC S.p.A.</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5893,7 +5893,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>CREACTIVES GROUP S.p.A.</t>
+          <t>PININFARINA S.p.A.</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5903,14 +5903,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Confinvest F.L. S.p.A.</t>
+          <t>Racing Force S.p.A.</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5927,7 +5927,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>DANIELI &amp; C. S.p.A.</t>
+          <t>HERA S.p.A.</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -5937,14 +5937,14 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>FINCANTIERI S.p.A.</t>
+          <t>G.M. Leather S.p.A.</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -5961,7 +5961,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ESI S.p.A.</t>
+          <t>Longino &amp; Cardenal S.p.A.</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -5978,7 +5978,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Intred S.p.A.</t>
+          <t>TREVI - Finanziaria Industriale S.p.A.</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -5995,7 +5995,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Cogefeed S.p.A.</t>
+          <t>Unipol S.p.A.</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -6012,7 +6012,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Racing Force S.p.A.</t>
+          <t>Cogefeed S.p.A.</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -6022,14 +6022,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Rocket Sharing Company S.p.A.</t>
+          <t>Directa SIM S.P.A.</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -6046,7 +6046,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>SOL S.p.A.</t>
+          <t>Directa SIM S.P.A.</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -6056,14 +6056,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Edil San Felice S.p.A. Società Benefit</t>
+          <t>TERNA S.p.A.</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -6080,7 +6080,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Edil San Felice S.p.A. Società Benefit</t>
+          <t>TERNA S.p.A.</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -6097,7 +6097,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Finanza.tech S.p.A. Società Benefit</t>
+          <t>ENA S.p.A.</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -6114,7 +6114,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>GVS S.p.A.</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -6124,14 +6124,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Giglio.com S.p.A.</t>
+          <t>Alfonsino S.p.A.</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -6148,7 +6148,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Grifal S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -6158,14 +6158,14 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ENA S.p.A.</t>
+          <t>Lindbergh S.p.A.</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -6182,7 +6182,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Directa SIM S.P.A.</t>
+          <t>KME Group S.p.A.</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -6192,14 +6192,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Directa SIM S.P.A.</t>
+          <t>Edil San Felice S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -6209,14 +6209,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ISCC FINTECH S.p.A.</t>
+          <t>Edil San Felice S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -6233,7 +6233,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>Finanza.tech S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6243,14 +6243,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Alfonsino S.p.A.</t>
+          <t>GVS S.p.A.</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -6267,7 +6267,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>RES S.p.A.</t>
+          <t>Giglio.com S.p.A.</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -6284,7 +6284,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Industrie Chimiche Forestali S.p.A.</t>
+          <t>Grifal S.p.A.</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -6301,7 +6301,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Pirelli &amp; C. S.p.A.</t>
+          <t>ISCC FINTECH S.p.A.</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -6318,7 +6318,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Next Geosolutions Europe S.p.A.</t>
+          <t>Industrie Chimiche Forestali S.p.A.</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -6335,7 +6335,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Unipol S.p.A.</t>
+          <t>Intred S.p.A.</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -6352,7 +6352,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>TREVI - Finanziaria Industriale S.p.A.</t>
+          <t>SOL S.p.A.</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -6369,7 +6369,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>TERNA S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6386,7 +6386,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>Rocket Sharing Company S.p.A.</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -6396,14 +6396,14 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>TERNA S.p.A.</t>
+          <t>Racing Force S.p.A.</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6413,14 +6413,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>KME Group S.p.A.</t>
+          <t>RES S.p.A.</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6437,7 +6437,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Lindbergh S.p.A.</t>
+          <t>Pirelli &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6471,7 +6471,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>Next Geosolutions Europe S.p.A.</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6481,14 +6481,14 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Smart Capital S.p.A.</t>
+          <t>Italian Wine Brands S.p.A.</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -6505,7 +6505,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Telmes S.p.A.</t>
+          <t>PREMIA FINANCE S.P.A</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -6522,7 +6522,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>SOSTRAVEL.COM S.p.A.</t>
+          <t>Praexidia Industrie Strategiche S.p.A.</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6539,7 +6539,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>TradeLab S.p.A.</t>
+          <t>Riba Mundo Tecnologia S.A.</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6556,7 +6556,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>UCapital24 S.p.A.</t>
+          <t>SBE-Varvit S.p.A.</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6573,7 +6573,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>VINEXT S.p.A.</t>
+          <t>SG COMPANY SOCIETÀ BENEFIT S.p.A.</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6590,7 +6590,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Vimi Fasteners S.p.A.</t>
+          <t>SIAV S.p.A.</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6600,14 +6600,14 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Saccheria F.lli Franceschetti S.p.A.</t>
+          <t>EDILIZIACROBATICA S.p.A.</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6624,7 +6624,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Bellini Nautica S.p.A.</t>
+          <t>International Care Company S.p.A.</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6641,7 +6641,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Arterra Bioscience S.p.A.</t>
+          <t>ELES S.p.A.</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6658,7 +6658,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>ESAUTOMOTION S.p.A.</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6675,7 +6675,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Copernico SIM S.p.A.</t>
+          <t>PHILOGEN S.p.A.</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6692,7 +6692,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>DEODATO.GALLERY S.p.A.</t>
+          <t>Energy S.p.A.</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6709,7 +6709,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>DESTINATION ITALIA S.p.A.</t>
+          <t>Iniziative Bresciane - INBRE - S.p.A.</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -6726,7 +6726,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Magis S.p.A.</t>
+          <t>Lemon Sistemi S.p.A.</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -6743,7 +6743,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>MARZOCCHI POMPE S.p.A.</t>
+          <t>SOGES GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -6760,7 +6760,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Lemon Sistemi S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -6770,14 +6770,14 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Italian Wine Brands S.p.A.</t>
+          <t>YOLO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -6794,7 +6794,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>International Care Company S.p.A.</t>
+          <t>Saccheria F.lli Franceschetti S.p.A.</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -6811,7 +6811,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Iniziative Bresciane - INBRE - S.p.A.</t>
+          <t>Magis S.p.A.</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -6828,7 +6828,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Energy S.p.A.</t>
+          <t>MARZOCCHI POMPE S.p.A.</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -6845,7 +6845,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>YOLO GROUP S.p.A.</t>
+          <t>Arterra Bioscience S.p.A.</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -6862,7 +6862,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ESAUTOMOTION S.p.A.</t>
+          <t>Bellini Nautica S.p.A.</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -6879,7 +6879,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>EDILIZIACROBATICA S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -6896,7 +6896,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>SOGES GROUP S.p.A.</t>
+          <t>Copernico SIM S.p.A.</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -6913,7 +6913,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>SIAV S.p.A.</t>
+          <t>DEODATO.GALLERY S.p.A.</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -6923,14 +6923,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>SG COMPANY SOCIETÀ BENEFIT S.p.A.</t>
+          <t>DESTINATION ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -6947,7 +6947,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>SBE-Varvit S.p.A.</t>
+          <t>Yakkyo S.p.A.</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -6964,7 +6964,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Riba Mundo Tecnologia S.A.</t>
+          <t>Vimi Fasteners S.p.A.</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -6981,7 +6981,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Praexidia Industrie Strategiche S.p.A.</t>
+          <t>VINEXT S.p.A.</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -6998,7 +6998,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>PREMIA FINANCE S.P.A</t>
+          <t>UCapital24 S.p.A.</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -7015,7 +7015,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>PHILOGEN S.p.A.</t>
+          <t>TradeLab S.p.A.</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -7032,7 +7032,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>Telmes S.p.A.</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -7042,14 +7042,14 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Metriks AI S.p.A. Società Benefit</t>
+          <t>Smart Capital S.p.A.</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -7066,7 +7066,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ELES S.p.A.</t>
+          <t>Metriks AI S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -7083,7 +7083,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Yakkyo S.p.A.</t>
+          <t>SOSTRAVEL.COM S.p.A.</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -7108,235 +7108,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>stock_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ticker</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>detachment_date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>payment_date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>last_close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>dividend</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ratio</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>miss_days</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>is_opportunity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Eni S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>IT0003132476</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2026-03-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>19.35799980163574</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>EURO</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1.343113971816603</v>
-      </c>
-      <c r="I2" t="n">
-        <v>24</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>IGD SIIQ S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>IT0005322612</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2026-05-04 00:00:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2026-05-06</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4.320000171661377</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>EURO</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3.472222084248513</v>
-      </c>
-      <c r="I3" t="n">
-        <v>66</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Poste Italiane S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>IT0003796171</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2026-06-22 00:00:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2026-06-24</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>23</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>EURO</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3.695652173913043</v>
-      </c>
-      <c r="I4" t="n">
-        <v>115</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prysmian S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>IT0004176001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2026-04-20 00:00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2026-04-22</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>100.1500015258789</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>EURO</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8986520082752457</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -7347,49 +7126,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sanlorenzo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-03-17</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>